--- a/data/excel/cpi1998.xlsx
+++ b/data/excel/cpi1998.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="89">
   <si>
     <t>Denmark</t>
   </si>
@@ -288,6 +288,9 @@
   </si>
   <si>
     <t>Country</t>
+  </si>
+  <si>
+    <t>Year</t>
   </si>
 </sst>
 </file>
@@ -605,10 +608,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A65" workbookViewId="0">
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -616,7 +619,7 @@
     <col min="2" max="2" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>86</v>
       </c>
@@ -626,8 +629,11 @@
       <c r="C1" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -637,8 +643,11 @@
       <c r="C2">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -648,8 +657,11 @@
       <c r="C3">
         <v>9.6</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -659,8 +671,11 @@
       <c r="C4">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D4">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -670,8 +685,11 @@
       <c r="C5">
         <v>9.4</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D5">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -681,8 +699,11 @@
       <c r="C6">
         <v>9.3000000000000007</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -692,8 +713,11 @@
       <c r="C7">
         <v>9.1999999999999993</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -703,8 +727,11 @@
       <c r="C8">
         <v>9.1</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D8">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -714,8 +741,11 @@
       <c r="C9">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D9">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -725,8 +755,11 @@
       <c r="C10">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -736,8 +769,11 @@
       <c r="C11">
         <v>8.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D11">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -747,8 +783,11 @@
       <c r="C12">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D12">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -758,8 +797,11 @@
       <c r="C13">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D13">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>11</v>
       </c>
@@ -769,8 +811,11 @@
       <c r="C14">
         <v>8.6999999999999993</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -780,8 +825,11 @@
       <c r="C15">
         <v>8.1999999999999993</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -791,8 +839,11 @@
       <c r="C16">
         <v>7.9</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -802,8 +853,11 @@
       <c r="C17">
         <v>7.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D17">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -813,8 +867,11 @@
       <c r="C18">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D18">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -824,8 +881,11 @@
       <c r="C19">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D19">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -835,8 +895,11 @@
       <c r="C20">
         <v>7.1</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -846,8 +909,11 @@
       <c r="C21">
         <v>6.8</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D21">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -857,8 +923,11 @@
       <c r="C22">
         <v>6.7</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D22">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -868,8 +937,11 @@
       <c r="C23">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D23">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -879,8 +951,11 @@
       <c r="C24">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D24">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -890,8 +965,11 @@
       <c r="C25">
         <v>6.1</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D25">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>25</v>
       </c>
@@ -901,8 +979,11 @@
       <c r="C26">
         <v>5.8</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D26">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>26</v>
       </c>
@@ -912,8 +993,11 @@
       <c r="C27">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D27">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>27</v>
       </c>
@@ -923,8 +1007,11 @@
       <c r="C28">
         <v>5.6</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D28">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>28</v>
       </c>
@@ -934,8 +1021,11 @@
       <c r="C29">
         <v>5.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D29">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>29</v>
       </c>
@@ -945,8 +1035,11 @@
       <c r="C30">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D30">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -956,8 +1049,11 @@
       <c r="C31">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D31">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>29</v>
       </c>
@@ -967,8 +1063,11 @@
       <c r="C32">
         <v>5.3</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>32</v>
       </c>
@@ -978,8 +1077,11 @@
       <c r="C33">
         <v>5.2</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D33">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>33</v>
       </c>
@@ -989,8 +1091,11 @@
       <c r="C34">
         <v>5</v>
       </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D34">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -1000,8 +1105,11 @@
       <c r="C35">
         <v>5</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D35">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>33</v>
       </c>
@@ -1011,8 +1119,11 @@
       <c r="C36">
         <v>5</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D36">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>36</v>
       </c>
@@ -1022,8 +1133,11 @@
       <c r="C37">
         <v>4.9000000000000004</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D37">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>37</v>
       </c>
@@ -1033,8 +1147,11 @@
       <c r="C38">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D38">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>38</v>
       </c>
@@ -1044,8 +1161,11 @@
       <c r="C39">
         <v>4.7</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>39</v>
       </c>
@@ -1055,8 +1175,11 @@
       <c r="C40">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D40">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -1066,8 +1189,11 @@
       <c r="C41">
         <v>4.5999999999999996</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D41">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>41</v>
       </c>
@@ -1077,8 +1203,11 @@
       <c r="C42">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D42">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>42</v>
       </c>
@@ -1088,8 +1217,11 @@
       <c r="C43">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D43">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>43</v>
       </c>
@@ -1099,8 +1231,11 @@
       <c r="C44">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D44">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -1110,8 +1245,11 @@
       <c r="C45">
         <v>4.2</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D45">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>45</v>
       </c>
@@ -1121,8 +1259,11 @@
       <c r="C46">
         <v>4.0999999999999996</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D46">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>46</v>
       </c>
@@ -1132,8 +1273,11 @@
       <c r="C47">
         <v>4</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>47</v>
       </c>
@@ -1143,8 +1287,11 @@
       <c r="C48">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D48">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -1154,8 +1301,11 @@
       <c r="C49">
         <v>3.9</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D49">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>49</v>
       </c>
@@ -1165,8 +1315,11 @@
       <c r="C50">
         <v>3.8</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D50">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>50</v>
       </c>
@@ -1176,8 +1329,11 @@
       <c r="C51">
         <v>3.7</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D51">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>51</v>
       </c>
@@ -1187,8 +1343,11 @@
       <c r="C52">
         <v>3.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D52">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>52</v>
       </c>
@@ -1198,8 +1357,11 @@
       <c r="C53">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D53">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>52</v>
       </c>
@@ -1209,8 +1371,11 @@
       <c r="C54">
         <v>3.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D54">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>54</v>
       </c>
@@ -1220,8 +1385,11 @@
       <c r="C55">
         <v>3.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D55">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>55</v>
       </c>
@@ -1231,8 +1399,11 @@
       <c r="C56">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D56">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>55</v>
       </c>
@@ -1242,8 +1413,11 @@
       <c r="C57">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D57">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>55</v>
       </c>
@@ -1253,8 +1427,11 @@
       <c r="C58">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D58">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>55</v>
       </c>
@@ -1264,8 +1441,11 @@
       <c r="C59">
         <v>3.3</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D59">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>59</v>
       </c>
@@ -1275,8 +1455,11 @@
       <c r="C60">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D60">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>59</v>
       </c>
@@ -1286,8 +1469,11 @@
       <c r="C61">
         <v>3.1</v>
       </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D61">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>61</v>
       </c>
@@ -1297,8 +1483,11 @@
       <c r="C62">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D62">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>61</v>
       </c>
@@ -1308,8 +1497,11 @@
       <c r="C63">
         <v>3</v>
       </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D63">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>61</v>
       </c>
@@ -1319,8 +1511,11 @@
       <c r="C64">
         <v>3</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D64">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>61</v>
       </c>
@@ -1330,8 +1525,11 @@
       <c r="C65">
         <v>3</v>
       </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>61</v>
       </c>
@@ -1341,8 +1539,11 @@
       <c r="C66">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D66">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>66</v>
       </c>
@@ -1352,8 +1553,11 @@
       <c r="C67">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D67">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>66</v>
       </c>
@@ -1363,8 +1567,11 @@
       <c r="C68">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D68">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>66</v>
       </c>
@@ -1374,8 +1581,11 @@
       <c r="C69">
         <v>2.9</v>
       </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D69">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>69</v>
       </c>
@@ -1385,8 +1595,11 @@
       <c r="C70">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D70">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>69</v>
       </c>
@@ -1396,8 +1609,11 @@
       <c r="C71">
         <v>2.8</v>
       </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D71">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>71</v>
       </c>
@@ -1407,8 +1623,11 @@
       <c r="C72">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D72">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>71</v>
       </c>
@@ -1418,8 +1637,11 @@
       <c r="C73">
         <v>2.7</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D73">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>73</v>
       </c>
@@ -1429,8 +1651,11 @@
       <c r="C74">
         <v>2.6</v>
       </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D74">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>74</v>
       </c>
@@ -1440,8 +1665,11 @@
       <c r="C75">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D75">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>74</v>
       </c>
@@ -1451,8 +1679,11 @@
       <c r="C76">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D76">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>76</v>
       </c>
@@ -1462,8 +1693,11 @@
       <c r="C77">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D77">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>77</v>
       </c>
@@ -1473,8 +1707,11 @@
       <c r="C78">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>77</v>
       </c>
@@ -1484,8 +1721,11 @@
       <c r="C79">
         <v>2.2999999999999998</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D79">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>79</v>
       </c>
@@ -1495,8 +1735,11 @@
       <c r="C80">
         <v>2.2000000000000002</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D80">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>80</v>
       </c>
@@ -1506,8 +1749,11 @@
       <c r="C81">
         <v>2</v>
       </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D81">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>81</v>
       </c>
@@ -1517,8 +1763,11 @@
       <c r="C82">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D82">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>81</v>
       </c>
@@ -1528,8 +1777,11 @@
       <c r="C83">
         <v>1.9</v>
       </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D83">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>83</v>
       </c>
@@ -1539,8 +1791,11 @@
       <c r="C84">
         <v>1.7</v>
       </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D84">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
@@ -1550,8 +1805,11 @@
       <c r="C85">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D85">
+        <v>1998</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>85</v>
       </c>
@@ -1560,6 +1818,9 @@
       </c>
       <c r="C86">
         <v>1.4</v>
+      </c>
+      <c r="D86">
+        <v>1998</v>
       </c>
     </row>
   </sheetData>
